--- a/catalogsList/05072021/reportRate.xlsx
+++ b/catalogsList/05072021/reportRate.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="241">
   <si>
     <t>Строительство лесных дорог, предназначенных для охраны лесов от пожаров</t>
   </si>
@@ -464,18 +464,9 @@
     <t>796</t>
   </si>
   <si>
-    <t>797</t>
-  </si>
-  <si>
     <t>798</t>
   </si>
   <si>
-    <t>799</t>
-  </si>
-  <si>
-    <t>800</t>
-  </si>
-  <si>
     <t>reportRateTypeId</t>
   </si>
   <si>
@@ -768,6 +759,9 @@
   </si>
   <si>
     <t>в том числе:на землях лесного фонда</t>
+  </si>
+  <si>
+    <t>059</t>
   </si>
 </sst>
 </file>
@@ -1143,7 +1137,7 @@
   <dimension ref="A1:F159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D146" sqref="D146"/>
+      <selection activeCell="F151" sqref="F151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1152,7 +1146,7 @@
     <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="151.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1164,13 +1158,13 @@
         <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D1" t="s">
         <v>138</v>
       </c>
-      <c r="E1" t="s">
-        <v>146</v>
+      <c r="E1" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="F1" t="s">
         <v>23</v>
@@ -1305,8 +1299,8 @@
       <c r="D9" t="s">
         <v>118</v>
       </c>
-      <c r="E9" s="2">
-        <v>59</v>
+      <c r="E9" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
@@ -1339,8 +1333,8 @@
       <c r="D11" t="s">
         <v>120</v>
       </c>
-      <c r="E11" s="2">
-        <v>59</v>
+      <c r="E11" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F11" t="s">
         <v>5</v>
@@ -1408,7 +1402,7 @@
         <v>124</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F15" t="s">
         <v>9</v>
@@ -1425,7 +1419,7 @@
         <v>125</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F16" t="s">
         <v>10</v>
@@ -1442,7 +1436,7 @@
         <v>126</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F17" t="s">
         <v>11</v>
@@ -1459,7 +1453,7 @@
         <v>127</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F18" t="s">
         <v>12</v>
@@ -1475,8 +1469,8 @@
       <c r="D19" t="s">
         <v>128</v>
       </c>
-      <c r="E19" s="2">
-        <v>59</v>
+      <c r="E19" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F19" t="s">
         <v>13</v>
@@ -1492,8 +1486,8 @@
       <c r="D20" t="s">
         <v>129</v>
       </c>
-      <c r="E20" s="2">
-        <v>59</v>
+      <c r="E20" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F20" t="s">
         <v>14</v>
@@ -1509,8 +1503,8 @@
       <c r="D21" t="s">
         <v>130</v>
       </c>
-      <c r="E21" s="2">
-        <v>59</v>
+      <c r="E21" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F21" t="s">
         <v>15</v>
@@ -1560,8 +1554,8 @@
       <c r="D24" t="s">
         <v>133</v>
       </c>
-      <c r="E24" s="2">
-        <v>59</v>
+      <c r="E24" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F24" t="s">
         <v>18</v>
@@ -1594,8 +1588,8 @@
       <c r="D26" t="s">
         <v>135</v>
       </c>
-      <c r="E26" s="2">
-        <v>59</v>
+      <c r="E26" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F26" t="s">
         <v>20</v>
@@ -1625,8 +1619,8 @@
       <c r="D29" t="s">
         <v>128</v>
       </c>
-      <c r="E29" s="2">
-        <v>59</v>
+      <c r="E29" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F29" t="s">
         <v>25</v>
@@ -1643,10 +1637,10 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>147</v>
-      </c>
-      <c r="E30" s="2">
-        <v>59</v>
+        <v>144</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>26</v>
@@ -1663,10 +1657,10 @@
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>148</v>
-      </c>
-      <c r="E31" s="2">
-        <v>59</v>
+        <v>145</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>30</v>
@@ -1683,10 +1677,10 @@
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>149</v>
-      </c>
-      <c r="E32" s="2">
-        <v>59</v>
+        <v>146</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>27</v>
@@ -1705,8 +1699,8 @@
       <c r="D33" t="s">
         <v>129</v>
       </c>
-      <c r="E33" s="2">
-        <v>59</v>
+      <c r="E33" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>28</v>
@@ -1720,10 +1714,10 @@
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>150</v>
-      </c>
-      <c r="E34" s="2">
-        <v>59</v>
+        <v>147</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F34" t="s">
         <v>31</v>
@@ -1740,10 +1734,10 @@
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>151</v>
-      </c>
-      <c r="E35" s="2">
-        <v>59</v>
+        <v>148</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>32</v>
@@ -1760,10 +1754,10 @@
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>152</v>
-      </c>
-      <c r="E36" s="2">
-        <v>59</v>
+        <v>149</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>33</v>
@@ -1780,10 +1774,10 @@
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>153</v>
-      </c>
-      <c r="E37" s="2">
-        <v>59</v>
+        <v>150</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>34</v>
@@ -1800,7 +1794,7 @@
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E38" s="2">
         <v>796</v>
@@ -1820,10 +1814,10 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>155</v>
-      </c>
-      <c r="E39" s="2">
-        <v>59</v>
+        <v>152</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>35</v>
@@ -1840,10 +1834,10 @@
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>35</v>
@@ -1860,10 +1854,10 @@
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>157</v>
-      </c>
-      <c r="E41" s="2">
-        <v>59</v>
+        <v>154</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>36</v>
@@ -1880,10 +1874,10 @@
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>36</v>
@@ -1900,13 +1894,13 @@
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -1920,10 +1914,10 @@
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>160</v>
-      </c>
-      <c r="E44" s="2">
-        <v>59</v>
+        <v>157</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>37</v>
@@ -1940,10 +1934,10 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>37</v>
@@ -1960,13 +1954,13 @@
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -1980,10 +1974,10 @@
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>163</v>
-      </c>
-      <c r="E47" s="2">
-        <v>59</v>
+        <v>160</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>38</v>
@@ -2000,10 +1994,10 @@
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>38</v>
@@ -2020,7 +2014,7 @@
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E49" s="2">
         <v>796</v>
@@ -2040,10 +2034,10 @@
         <v>2</v>
       </c>
       <c r="D50" t="s">
+        <v>163</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>39</v>
@@ -2060,7 +2054,7 @@
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E51" s="2">
         <v>796</v>
@@ -2077,10 +2071,10 @@
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>170</v>
-      </c>
-      <c r="E52" s="2">
-        <v>59</v>
+        <v>167</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F52" t="s">
         <v>41</v>
@@ -2094,10 +2088,10 @@
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F53" t="s">
         <v>41</v>
@@ -2114,10 +2108,10 @@
         <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>172</v>
-      </c>
-      <c r="E54" s="2">
-        <v>59</v>
+        <v>169</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>42</v>
@@ -2134,10 +2128,10 @@
         <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>173</v>
-      </c>
-      <c r="E55" s="2">
-        <v>59</v>
+        <v>170</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>43</v>
@@ -2154,10 +2148,10 @@
         <v>2</v>
       </c>
       <c r="D56" t="s">
-        <v>174</v>
-      </c>
-      <c r="E56" s="2">
-        <v>59</v>
+        <v>171</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>44</v>
@@ -2174,10 +2168,10 @@
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>175</v>
-      </c>
-      <c r="E57" s="2">
-        <v>59</v>
+        <v>172</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>45</v>
@@ -2194,10 +2188,10 @@
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>176</v>
-      </c>
-      <c r="E58" s="2">
-        <v>59</v>
+        <v>173</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>46</v>
@@ -2214,10 +2208,10 @@
         <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>46</v>
@@ -2234,10 +2228,10 @@
         <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>178</v>
-      </c>
-      <c r="E60" s="2">
-        <v>59</v>
+        <v>175</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>47</v>
@@ -2254,10 +2248,10 @@
         <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>47</v>
@@ -2274,7 +2268,7 @@
         <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E62" s="2">
         <v>796</v>
@@ -2294,10 +2288,10 @@
         <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>48</v>
@@ -2315,7 +2309,7 @@
         <v>111</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F65" s="6" t="s">
         <v>49</v>
@@ -2333,7 +2327,7 @@
         <v>114</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>50</v>
@@ -2351,7 +2345,7 @@
         <v>117</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>51</v>
@@ -2368,8 +2362,8 @@
       <c r="D68" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E68" s="7">
-        <v>59</v>
+      <c r="E68" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>52</v>
@@ -2386,8 +2380,8 @@
       <c r="D69" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E69" s="7">
-        <v>59</v>
+      <c r="E69" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>53</v>
@@ -2404,8 +2398,8 @@
       <c r="D70" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="E70" s="7">
-        <v>59</v>
+      <c r="E70" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>54</v>
@@ -2440,8 +2434,8 @@
       <c r="D72" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E72" s="7">
-        <v>59</v>
+      <c r="E72" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F72" s="6" t="s">
         <v>56</v>
@@ -2458,8 +2452,8 @@
       <c r="D73" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="E73" s="7">
-        <v>59</v>
+      <c r="E73" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>57</v>
@@ -2476,8 +2470,8 @@
       <c r="D74" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E74" s="7">
-        <v>59</v>
+      <c r="E74" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>58</v>
@@ -2492,10 +2486,10 @@
         <v>3</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="E75" s="7">
-        <v>59</v>
+        <v>144</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F75" s="6" t="s">
         <v>59</v>
@@ -2512,8 +2506,8 @@
       <c r="D76" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="E76" s="7">
-        <v>59</v>
+      <c r="E76" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F76" s="6" t="s">
         <v>60</v>
@@ -2531,7 +2525,7 @@
         <v>127</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F77" s="6" t="s">
         <v>61</v>
@@ -2548,10 +2542,10 @@
         <v>3</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F78" s="8" t="s">
         <v>62</v>
@@ -2568,10 +2562,10 @@
         <v>3</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F79" s="9" t="s">
         <v>63</v>
@@ -2588,10 +2582,10 @@
         <v>3</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F80" s="9" t="s">
         <v>64</v>
@@ -2608,10 +2602,10 @@
         <v>3</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F81" s="10" t="s">
         <v>63</v>
@@ -2628,10 +2622,10 @@
         <v>3</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F82" s="9" t="s">
         <v>65</v>
@@ -2648,10 +2642,10 @@
         <v>3</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F83" s="10" t="s">
         <v>63</v>
@@ -2668,10 +2662,10 @@
         <v>3</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F84" s="8" t="s">
         <v>66</v>
@@ -2688,10 +2682,10 @@
         <v>3</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F85" s="9" t="s">
         <v>63</v>
@@ -2708,10 +2702,10 @@
         <v>3</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F86" s="9" t="s">
         <v>67</v>
@@ -2731,7 +2725,7 @@
         <v>134</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F87" s="10" t="s">
         <v>63</v>
@@ -2748,8 +2742,8 @@
       <c r="D88" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="E88" s="6">
-        <v>8</v>
+      <c r="E88" s="7" t="s">
+        <v>139</v>
       </c>
       <c r="F88" s="6" t="s">
         <v>68</v>
@@ -2766,8 +2760,8 @@
       <c r="D89" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="E89" s="6">
-        <v>59</v>
+      <c r="E89" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F89" s="6" t="s">
         <v>68</v>
@@ -2784,10 +2778,10 @@
         <v>3</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="E90" s="6">
-        <v>8</v>
+        <v>188</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>139</v>
       </c>
       <c r="F90" s="8" t="s">
         <v>69</v>
@@ -2804,10 +2798,10 @@
         <v>3</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="E91" s="6">
-        <v>59</v>
+        <v>188</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F91" s="8" t="s">
         <v>69</v>
@@ -2824,10 +2818,10 @@
         <v>3</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="E92" s="6">
-        <v>8</v>
+        <v>189</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>139</v>
       </c>
       <c r="F92" s="8" t="s">
         <v>70</v>
@@ -2844,10 +2838,10 @@
         <v>3</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="E93" s="6">
-        <v>59</v>
+        <v>189</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F93" s="8" t="s">
         <v>70</v>
@@ -2864,8 +2858,8 @@
       <c r="D94" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="E94" s="7">
-        <v>59</v>
+      <c r="E94" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F94" s="6" t="s">
         <v>71</v>
@@ -2882,10 +2876,10 @@
         <v>3</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F95" s="8" t="s">
         <v>72</v>
@@ -2902,10 +2896,10 @@
         <v>3</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E96" s="7">
-        <v>59</v>
+        <v>191</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F96" s="9" t="s">
         <v>73</v>
@@ -2922,10 +2916,10 @@
         <v>3</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="E97" s="7">
-        <v>59</v>
+        <v>192</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F97" s="10" t="s">
         <v>74</v>
@@ -2942,10 +2936,10 @@
         <v>3</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="E98" s="7">
-        <v>59</v>
+        <v>193</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F98" s="10" t="s">
         <v>75</v>
@@ -2962,10 +2956,10 @@
         <v>3</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="E99" s="7">
-        <v>59</v>
+        <v>194</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F99" s="11" t="s">
         <v>76</v>
@@ -2982,10 +2976,10 @@
         <v>3</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="E100" s="7">
-        <v>59</v>
+        <v>195</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F100" s="8" t="s">
         <v>77</v>
@@ -3002,10 +2996,10 @@
         <v>3</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="E101" s="7">
-        <v>59</v>
+        <v>196</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F101" s="9" t="s">
         <v>78</v>
@@ -3022,10 +3016,10 @@
         <v>3</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="E102" s="7">
-        <v>59</v>
+        <v>197</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F102" s="8" t="s">
         <v>79</v>
@@ -3042,10 +3036,10 @@
         <v>3</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="E103" s="7">
-        <v>59</v>
+        <v>198</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F103" s="9" t="s">
         <v>80</v>
@@ -3062,10 +3056,10 @@
         <v>3</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="E104" s="7">
-        <v>59</v>
+        <v>147</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F104" s="10" t="s">
         <v>74</v>
@@ -3082,10 +3076,10 @@
         <v>3</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="E105" s="7">
-        <v>59</v>
+        <v>199</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F105" s="10" t="s">
         <v>75</v>
@@ -3102,10 +3096,10 @@
         <v>3</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="E106" s="7">
-        <v>59</v>
+        <v>200</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F106" s="11" t="s">
         <v>81</v>
@@ -3122,10 +3116,10 @@
         <v>3</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="E107" s="7">
-        <v>59</v>
+        <v>201</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F107" s="9" t="s">
         <v>77</v>
@@ -3142,10 +3136,10 @@
         <v>3</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="E108" s="7">
-        <v>59</v>
+        <v>202</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F108" s="10" t="s">
         <v>78</v>
@@ -3162,10 +3156,10 @@
         <v>3</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="E109" s="7">
-        <v>59</v>
+        <v>203</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F109" s="8" t="s">
         <v>82</v>
@@ -3182,10 +3176,10 @@
         <v>3</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="E110" s="7">
-        <v>59</v>
+        <v>204</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F110" s="9" t="s">
         <v>83</v>
@@ -3202,10 +3196,10 @@
         <v>3</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="E111" s="7">
-        <v>59</v>
+        <v>205</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F111" s="9" t="s">
         <v>84</v>
@@ -3220,10 +3214,10 @@
         <v>3</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="E112" s="7">
-        <v>59</v>
+        <v>148</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F112" s="6" t="s">
         <v>85</v>
@@ -3240,10 +3234,10 @@
         <v>3</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="E113" s="7">
-        <v>59</v>
+        <v>149</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F113" s="8" t="s">
         <v>73</v>
@@ -3260,10 +3254,10 @@
         <v>3</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="E114" s="7">
-        <v>59</v>
+        <v>150</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F114" s="9" t="s">
         <v>74</v>
@@ -3280,10 +3274,10 @@
         <v>3</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="E115" s="7">
-        <v>59</v>
+        <v>151</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F115" s="9" t="s">
         <v>75</v>
@@ -3300,10 +3294,10 @@
         <v>3</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="E116" s="7">
-        <v>59</v>
+        <v>206</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F116" s="10" t="s">
         <v>81</v>
@@ -3318,10 +3312,10 @@
         <v>3</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="E117" s="7">
-        <v>59</v>
+        <v>152</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F117" s="6" t="s">
         <v>86</v>
@@ -3338,10 +3332,10 @@
         <v>3</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="E118" s="7">
-        <v>59</v>
+        <v>154</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F118" s="9" t="s">
         <v>87</v>
@@ -3358,10 +3352,10 @@
         <v>3</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="E119" s="7">
-        <v>59</v>
+        <v>157</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F119" s="9" t="s">
         <v>88</v>
@@ -3378,10 +3372,10 @@
         <v>3</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="E120" s="7">
-        <v>59</v>
+        <v>160</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F120" s="9" t="s">
         <v>89</v>
@@ -3396,10 +3390,10 @@
         <v>3</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="E121" s="7">
-        <v>59</v>
+        <v>153</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F121" s="6" t="s">
         <v>90</v>
@@ -3416,10 +3410,10 @@
         <v>3</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="E122" s="7">
-        <v>59</v>
+        <v>155</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F122" s="8" t="s">
         <v>91</v>
@@ -3434,10 +3428,10 @@
         <v>3</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="E123" s="7">
-        <v>59</v>
+        <v>156</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F123" s="6" t="s">
         <v>92</v>
@@ -3454,13 +3448,13 @@
         <v>3</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="E124" s="7">
-        <v>59</v>
+        <v>159</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
@@ -3474,10 +3468,10 @@
         <v>3</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="E125" s="7">
-        <v>59</v>
+        <v>207</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F125" s="8" t="s">
         <v>93</v>
@@ -3492,10 +3486,10 @@
         <v>3</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="E126" s="7">
-        <v>59</v>
+        <v>164</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F126" s="6" t="s">
         <v>94</v>
@@ -3510,10 +3504,10 @@
         <v>3</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F127" s="6" t="s">
         <v>94</v>
@@ -3530,10 +3524,10 @@
         <v>3</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="E128" s="7">
-        <v>59</v>
+        <v>209</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F128" s="8" t="s">
         <v>95</v>
@@ -3550,10 +3544,10 @@
         <v>3</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F129" s="8" t="s">
         <v>95</v>
@@ -3570,10 +3564,10 @@
         <v>3</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="E130" s="7">
-        <v>59</v>
+        <v>211</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F130" s="8" t="s">
         <v>96</v>
@@ -3590,10 +3584,10 @@
         <v>3</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F131" s="8" t="s">
         <v>96</v>
@@ -3610,10 +3604,10 @@
         <v>3</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="E132" s="7">
-        <v>59</v>
+        <v>213</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F132" s="8" t="s">
         <v>97</v>
@@ -3630,10 +3624,10 @@
         <v>3</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F133" s="8" t="s">
         <v>97</v>
@@ -3650,10 +3644,10 @@
         <v>3</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="E134" s="7">
-        <v>59</v>
+        <v>215</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F134" s="8" t="s">
         <v>98</v>
@@ -3670,10 +3664,10 @@
         <v>3</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F135" s="8" t="s">
         <v>98</v>
@@ -3690,10 +3684,10 @@
         <v>3</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="E136" s="7">
-        <v>59</v>
+        <v>217</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F136" s="8" t="s">
         <v>99</v>
@@ -3710,10 +3704,10 @@
         <v>3</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F137" s="8" t="s">
         <v>99</v>
@@ -3730,10 +3724,10 @@
         <v>3</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="E138" s="7">
-        <v>59</v>
+        <v>219</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F138" s="8" t="s">
         <v>100</v>
@@ -3750,10 +3744,10 @@
         <v>3</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F139" s="8" t="s">
         <v>100</v>
@@ -3770,10 +3764,10 @@
         <v>3</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="E140" s="7">
-        <v>59</v>
+        <v>221</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F140" s="8" t="s">
         <v>101</v>
@@ -3790,10 +3784,10 @@
         <v>3</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E141" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F141" s="8" t="s">
         <v>101</v>
@@ -3810,10 +3804,10 @@
         <v>3</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="E142" s="7">
-        <v>59</v>
+        <v>223</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F142" s="8" t="s">
         <v>102</v>
@@ -3828,10 +3822,10 @@
         <v>3</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="E143" s="7">
-        <v>59</v>
+        <v>224</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F143" s="6" t="s">
         <v>103</v>
@@ -3848,13 +3842,13 @@
         <v>3</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="E144" s="7">
-        <v>59</v>
+        <v>225</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F144" s="8" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
@@ -3868,10 +3862,10 @@
         <v>3</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="E145" s="7">
-        <v>59</v>
+        <v>226</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F145" s="9" t="s">
         <v>73</v>
@@ -3888,10 +3882,10 @@
         <v>3</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="E146" s="7">
-        <v>59</v>
+        <v>227</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F146" s="10" t="s">
         <v>74</v>
@@ -3908,10 +3902,10 @@
         <v>3</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="E147" s="7">
-        <v>59</v>
+        <v>228</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F147" s="10" t="s">
         <v>75</v>
@@ -3928,10 +3922,10 @@
         <v>3</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E148" s="7">
-        <v>59</v>
+        <v>229</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F148" s="11" t="s">
         <v>76</v>
@@ -3948,10 +3942,10 @@
         <v>3</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="E149" s="7">
-        <v>59</v>
+        <v>230</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F149" s="9" t="s">
         <v>77</v>
@@ -3968,10 +3962,10 @@
         <v>3</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="E150" s="7">
-        <v>59</v>
+        <v>231</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F150" s="10" t="s">
         <v>78</v>
@@ -3986,10 +3980,10 @@
         <v>3</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="E151" s="7">
-        <v>59</v>
+        <v>232</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F151" s="6" t="s">
         <v>104</v>
@@ -4006,10 +4000,10 @@
         <v>3</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="E152" s="7">
-        <v>59</v>
+        <v>233</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F152" s="8" t="s">
         <v>105</v>
@@ -4026,10 +4020,10 @@
         <v>3</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="E153" s="7">
-        <v>59</v>
+        <v>234</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F153" s="8" t="s">
         <v>88</v>
@@ -4046,10 +4040,10 @@
         <v>3</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="E154" s="7">
-        <v>59</v>
+        <v>235</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F154" s="8" t="s">
         <v>89</v>
@@ -4064,10 +4058,10 @@
         <v>3</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="E155" s="7">
-        <v>59</v>
+        <v>236</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F155" s="6" t="s">
         <v>106</v>
@@ -4082,10 +4076,10 @@
         <v>3</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="E156" s="7">
-        <v>59</v>
+        <v>167</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F156" s="6" t="s">
         <v>107</v>
@@ -4100,10 +4094,10 @@
         <v>3</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="E157" s="7">
-        <v>59</v>
+        <v>168</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F157" s="6" t="s">
         <v>108</v>
@@ -4118,10 +4112,10 @@
         <v>3</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="E158" s="7">
-        <v>59</v>
+        <v>170</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F158" s="6" t="s">
         <v>109</v>
@@ -4136,10 +4130,10 @@
         <v>3</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E159" s="7">
-        <v>59</v>
+        <v>169</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="F159" s="6" t="s">
         <v>110</v>
